--- a/data/Pat.xlsx
+++ b/data/Pat.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derik.carvalho\Documents\PrimaryLogic\chatbotwpp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Informática\Arquivos\DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F6D1CC-07E2-4704-A40F-ABD282D99122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBBBE15-4390-4F7E-9EA5-0E3132D24D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1965" windowWidth="14400" windowHeight="8400" xr2:uid="{9B8A4DA7-6FFC-4195-B4DD-893D80DDFCCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9B8A4DA7-6FFC-4195-B4DD-893D80DDFCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrimônios" sheetId="1" r:id="rId1"/>
     <sheet name="Estoque" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Patrimônios!$A$1:$L$41</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="188">
   <si>
     <t>Controle e Registro de Patrimônios de T.I. Oyamota Brasil S.A.</t>
   </si>
@@ -134,13 +137,469 @@
   </si>
   <si>
     <t>Notebook</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>Armário</t>
+  </si>
+  <si>
+    <t>Equipamentos em geral</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Guarda Utensílios</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Pandin</t>
+  </si>
+  <si>
+    <t>Intelbras</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Equipamento de Rede</t>
+  </si>
+  <si>
+    <t>3COM</t>
+  </si>
+  <si>
+    <t>D-Link</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Administrador do Sistema</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>Intel Xeon Inside</t>
+  </si>
+  <si>
+    <t>1.74TB</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>2.58TB</t>
+  </si>
+  <si>
+    <t>Intel Xeon E-2378</t>
+  </si>
+  <si>
+    <t>Hack</t>
+  </si>
+  <si>
+    <t>Móvel</t>
+  </si>
+  <si>
+    <t>Furukawa</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Intel Celeron G1610</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>Janyna Silva</t>
+  </si>
+  <si>
+    <t>Késia Oliveira</t>
+  </si>
+  <si>
+    <t>Intel Pentium G2010</t>
+  </si>
+  <si>
+    <t>Brenda Silva</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Intel Core i5-6500</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Elielson Ramalho</t>
+  </si>
+  <si>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7500T</t>
+  </si>
+  <si>
+    <t>Adriana Lisboa</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Intel Core i3-2121</t>
+  </si>
+  <si>
+    <t>Thickcentre</t>
+  </si>
+  <si>
+    <t>Evelyn Medeiros</t>
+  </si>
+  <si>
+    <t>Intel Core i3-2130</t>
+  </si>
+  <si>
+    <t>Simone Lima</t>
+  </si>
+  <si>
+    <t>Fmaxx</t>
+  </si>
+  <si>
+    <t>Intel Core i3-2120</t>
+  </si>
+  <si>
+    <t>Em reserva</t>
+  </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Paula Leal</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Heloisa Assunção</t>
+  </si>
+  <si>
+    <t>Intel Core i3</t>
+  </si>
+  <si>
+    <t>Ingrid Brito</t>
+  </si>
+  <si>
+    <t>Pentium Dual-Core E5700</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Dispoitivo Móvel</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>8core</t>
+  </si>
+  <si>
+    <t>256GB</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4200U</t>
+  </si>
+  <si>
+    <t>Vitória Carvalho</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2520M</t>
+  </si>
+  <si>
+    <t>Wanessa Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Renan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almoxarifado </t>
+  </si>
+  <si>
+    <t>Intel Core i3-2100</t>
+  </si>
+  <si>
+    <t>Roziane Cruz</t>
+  </si>
+  <si>
+    <t>Lorena Nascimento</t>
+  </si>
+  <si>
+    <t>Desktop-mini</t>
+  </si>
+  <si>
+    <t>Josafá</t>
+  </si>
+  <si>
+    <t>Intel Core i5-6500T</t>
+  </si>
+  <si>
+    <t>Sala de Reunião</t>
+  </si>
+  <si>
+    <t>Projetor</t>
+  </si>
+  <si>
+    <t>Impressora</t>
+  </si>
+  <si>
+    <t>Epson - PowerLiteS17</t>
+  </si>
+  <si>
+    <t>Marca/Modelo</t>
+  </si>
+  <si>
+    <t>HP LaserJet P1606dn</t>
+  </si>
+  <si>
+    <t>Brother DCP-L2540DW</t>
+  </si>
+  <si>
+    <t>Gerente Geral</t>
+  </si>
+  <si>
+    <t>HP LaserJet P1102w</t>
+  </si>
+  <si>
+    <t>EPSON - L3250</t>
+  </si>
+  <si>
+    <t>Sala de Treinamento</t>
+  </si>
+  <si>
+    <t>Nobreak</t>
+  </si>
+  <si>
+    <t>Microsol - Staydoo</t>
+  </si>
+  <si>
+    <t>Epson - PowerLiteS18+</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Elétrico</t>
+  </si>
+  <si>
+    <t>Impressão</t>
+  </si>
+  <si>
+    <t>Projeção</t>
+  </si>
+  <si>
+    <t>Almoxarifado</t>
+  </si>
+  <si>
+    <t>UPSmini</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Enermax</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>HP LaserJet M1132 MFP</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Marinaldo Freitas</t>
+  </si>
+  <si>
+    <t>Intel Core i3 M 370</t>
+  </si>
+  <si>
+    <t>Elisvaldo Ramalho</t>
+  </si>
+  <si>
+    <t>Railson Silva</t>
+  </si>
+  <si>
+    <t>Intel Pentium G2020</t>
+  </si>
+  <si>
+    <t>José Junior - Acer</t>
+  </si>
+  <si>
+    <t>Intel Core i5-10300H</t>
+  </si>
+  <si>
+    <t>475GB</t>
+  </si>
+  <si>
+    <t>Ronaldo Bessa</t>
+  </si>
+  <si>
+    <t>Mouse, Teclado Mecânico</t>
+  </si>
+  <si>
+    <t>Vinicius Barbosa</t>
+  </si>
+  <si>
+    <t>Bluecase</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3770</t>
+  </si>
+  <si>
+    <t>476GB</t>
+  </si>
+  <si>
+    <t>Juliana Sousa</t>
+  </si>
+  <si>
+    <t>Intel Core  i5-6500</t>
+  </si>
+  <si>
+    <t>200GB</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2310</t>
+  </si>
+  <si>
+    <t>Francisco neto</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Ragtech</t>
+  </si>
+  <si>
+    <t>Luiz Carvalho</t>
+  </si>
+  <si>
+    <t>Railson Cardoso</t>
+  </si>
+  <si>
+    <t>237GB</t>
+  </si>
+  <si>
+    <t>Daniele Monteiro</t>
+  </si>
+  <si>
+    <t>Wanderley Lima</t>
+  </si>
+  <si>
+    <t>Intel Pentium Dual-Core E5300</t>
+  </si>
+  <si>
+    <t>223GB</t>
+  </si>
+  <si>
+    <t>Mauro Costa</t>
+  </si>
+  <si>
+    <t>931GB</t>
+  </si>
+  <si>
+    <t>Kaio Oliveira</t>
+  </si>
+  <si>
+    <t>Rubens Fonseca</t>
+  </si>
+  <si>
+    <t>C3Tech</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7500</t>
+  </si>
+  <si>
+    <t>248GB</t>
+  </si>
+  <si>
+    <t>Venúcia Viana</t>
+  </si>
+  <si>
+    <t>773GB</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Qualidade</t>
+  </si>
+  <si>
+    <t>HP LaserJet M1212nf MFP</t>
+  </si>
+  <si>
+    <t>HP DesignJet T250</t>
+  </si>
+  <si>
+    <t>Brother MFC-J6510DW</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>HP LaserJetM1212nf MFP</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Quad Q8200</t>
+  </si>
+  <si>
+    <t>Emprestado</t>
+  </si>
+  <si>
+    <t>SSD M.2 do Note</t>
+  </si>
+  <si>
+    <t>Eliane</t>
+  </si>
+  <si>
+    <t>Mina Ferro</t>
+  </si>
+  <si>
+    <t>NS 243724003-0319</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Televisão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +615,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,11 +675,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,185 +1025,3116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3817CDCB-DF44-4984-8F3D-801C12FCB4F8}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <v>481</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4">
+        <v>442</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4">
+        <v>712</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
+        <v>487</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4">
+        <v>714</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3">
+        <v>408</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4">
+        <v>458</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="4">
+        <v>786</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4">
+        <v>738</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4">
+        <v>753</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4">
+        <v>711</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="4">
+        <v>722</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4">
+        <v>449</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="4">
+        <v>136</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="4">
+        <v>186</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="4">
+        <v>168</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <v>169</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="4">
+        <v>198</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="4">
+        <v>140</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="4">
+        <v>172</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="4">
+        <v>486</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4">
+        <v>710</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="4">
+        <v>447</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="4">
+        <v>443</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="3">
+        <v>426</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="4">
+        <v>461</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="12">
+        <v>468</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="4">
+        <v>457</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="3">
+        <v>107</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H31" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I31" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K31" s="4">
+        <v>192</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K32" s="4">
+        <v>193</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="4">
+        <v>121</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="4">
+        <v>751</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="4">
+        <v>150</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="4">
+        <v>130</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="4">
+        <v>160</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="4">
+        <v>156</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="4">
+        <v>163</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="3">
+        <v>125</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="4">
+        <v>752</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="4">
+        <v>154</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="4">
+        <v>151</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44" s="4">
+        <v>162</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" s="4">
+        <v>128</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="4">
+        <v>149</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="4">
+        <v>164</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" s="4">
+        <v>153</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="4">
+        <v>157</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="4">
+        <v>105</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+      <c r="K51" s="4">
+        <v>111</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" s="4">
+        <v>126</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="4">
+        <v>148</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="4">
+        <v>158</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="4">
+        <v>109</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="4">
+        <v>135</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" s="4">
+        <v>118</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" s="4">
+        <v>113</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="4">
+        <v>114</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="4">
+        <v>122</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="4">
+        <v>119</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>139</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="4">
+        <v>123</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="K63" s="4">
+        <v>124</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s">
+        <v>141</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="4">
+        <v>127</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="4">
+        <v>129</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" s="4">
+        <v>133</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="4">
+        <v>147</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="4">
+        <v>152</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="4">
+        <v>155</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70" s="4">
+        <v>159</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="K71" s="4">
+        <v>165</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="12">
+        <v>161</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+      <c r="K73" s="4">
+        <v>167</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="4">
+        <v>166</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" t="s">
+        <v>159</v>
+      </c>
+      <c r="K75" s="4">
+        <v>184</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="4">
+        <v>145</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I77" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77" s="4">
+        <v>189</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>163</v>
+      </c>
+      <c r="K78" s="4">
+        <v>190</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" t="s">
+        <v>120</v>
+      </c>
+      <c r="K79" s="4">
+        <v>191</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>165</v>
+      </c>
+      <c r="K80" s="4">
+        <v>194</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
+      <c r="K81" s="4">
+        <v>195</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>146</v>
+      </c>
+      <c r="H82" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="4">
+        <v>196</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>128</v>
+      </c>
+      <c r="K83" s="4">
+        <v>197</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" t="s">
+        <v>169</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>170</v>
+      </c>
+      <c r="K84" s="4">
+        <v>199</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s">
+        <v>55</v>
+      </c>
+      <c r="J85" t="s">
+        <v>172</v>
+      </c>
+      <c r="K85" s="4">
+        <v>182</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86" s="4">
+        <v>183</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="4">
+        <v>139</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>175</v>
+      </c>
+      <c r="K88" s="4">
+        <v>729</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="K89" s="4">
+        <v>739</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>128</v>
+      </c>
+      <c r="K90" s="4">
+        <v>735</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+      <c r="K91" s="4">
+        <v>742</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
+        <v>177</v>
+      </c>
+      <c r="K92" s="4">
+        <v>745</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s">
+        <v>180</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" s="4">
+        <v>746</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" t="s">
+        <v>133</v>
+      </c>
+      <c r="K94" s="4">
+        <v>778</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>179</v>
+      </c>
+      <c r="K95" s="4">
+        <v>758</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" t="s">
+        <v>185</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>187</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L41" xr:uid="{3817CDCB-DF44-4984-8F3D-801C12FCB4F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -732,18 +4162,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
